--- a/MainProject/src/main/res/bumps/control.xlsx
+++ b/MainProject/src/main/res/bumps/control.xlsx
@@ -411,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -448,22 +448,22 @@
         <v>100019.53125</v>
       </c>
       <c r="C2">
-        <v>29043.29296875</v>
+        <v>31011.06640625</v>
       </c>
       <c r="D2">
-        <v>29079.43591456463</v>
+        <v>30168.76396876768</v>
       </c>
       <c r="E2">
-        <v>1452.1646484375</v>
+        <v>1550.5533203125</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
       <c r="G2">
-        <v>31592.37148788481</v>
+        <v>42861.74544370501</v>
       </c>
       <c r="H2">
-        <v>2797.603513770331</v>
+        <v>11989.14063854875</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -474,22 +474,22 @@
         <v>79511.71875</v>
       </c>
       <c r="C3">
-        <v>30308.474609375</v>
+        <v>32831.71875</v>
       </c>
       <c r="D3">
-        <v>30160.28740387432</v>
+        <v>32080.18835616526</v>
       </c>
       <c r="E3">
-        <v>1515.42373046875</v>
+        <v>1641.5859375</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
       </c>
       <c r="G3">
-        <v>2.195395227477822E+256</v>
+        <v>4.366484664592412E+243</v>
       </c>
       <c r="H3">
-        <v>5.001155751936546E+224</v>
+        <v>9.592402767507499E+227</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -500,22 +500,22 @@
         <v>63105.46875</v>
       </c>
       <c r="C4">
-        <v>31162.69140625</v>
+        <v>34482.27734375</v>
       </c>
       <c r="D4">
-        <v>30996.56144450997</v>
+        <v>33818.66702695414</v>
       </c>
       <c r="E4">
-        <v>1558.1345703125</v>
+        <v>1724.1138671875</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
       </c>
       <c r="G4">
-        <v>-0.9239266536126579</v>
+        <v>-0.6912122587962607</v>
       </c>
       <c r="H4">
-        <v>0.364029392887774</v>
+        <v>0.2703011616914273</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -526,22 +526,22 @@
         <v>50214.84375</v>
       </c>
       <c r="C5">
-        <v>31908.47265625</v>
+        <v>35968.6171875</v>
       </c>
       <c r="D5">
-        <v>31640.99816589661</v>
+        <v>35350.65854227818</v>
       </c>
       <c r="E5">
-        <v>1595.4236328125</v>
+        <v>1798.430859375</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
       <c r="G5">
-        <v>-0.454113863298173</v>
+        <v>-0.5262130450654049</v>
       </c>
       <c r="H5">
-        <v>0.1882293798719113</v>
+        <v>0.1767727696569793</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -552,22 +552,22 @@
         <v>39902.34375</v>
       </c>
       <c r="C6">
-        <v>32461.90625</v>
+        <v>37039.76171875</v>
       </c>
       <c r="D6">
-        <v>32160.93994306456</v>
+        <v>36711.76344874952</v>
       </c>
       <c r="E6">
-        <v>1623.0953125</v>
+        <v>1851.9880859375</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="G6">
-        <v>23422087000.3346</v>
+        <v>792933800.5092915</v>
       </c>
       <c r="H6">
-        <v>1.7522831087062E+234</v>
+        <v>4.106065996345121E+114</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -578,22 +578,22 @@
         <v>31699.21875</v>
       </c>
       <c r="C7">
-        <v>33088.359375</v>
+        <v>38400.640625</v>
       </c>
       <c r="D7">
-        <v>32594.88348534075</v>
+        <v>37908.07428866801</v>
       </c>
       <c r="E7">
-        <v>1654.41796875</v>
+        <v>1920.03203125</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7">
-        <v>583914.3584025004</v>
+        <v>850636.0731182554</v>
       </c>
       <c r="H7">
-        <v>2110831.057425295</v>
+        <v>350384.6840165902</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -604,13 +604,13 @@
         <v>25136.71875</v>
       </c>
       <c r="C8">
-        <v>33542.515625</v>
+        <v>39539.48828125</v>
       </c>
       <c r="D8">
-        <v>32976.89396168813</v>
+        <v>38964.55562376171</v>
       </c>
       <c r="E8">
-        <v>1677.12578125</v>
+        <v>1976.9744140625</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -621,13 +621,13 @@
         <v>19980.46875</v>
       </c>
       <c r="C9">
-        <v>33913.92578125</v>
+        <v>40511.9375</v>
       </c>
       <c r="D9">
-        <v>33323.87383490144</v>
+        <v>39883.40346096295</v>
       </c>
       <c r="E9">
-        <v>1695.6962890625</v>
+        <v>2025.596875</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -638,13 +638,13 @@
         <v>15878.90625</v>
       </c>
       <c r="C10">
-        <v>34306.4296875</v>
+        <v>41367.15625</v>
       </c>
       <c r="D10">
-        <v>33657.6282423287</v>
+        <v>40697.64517315098</v>
       </c>
       <c r="E10">
-        <v>1715.321484375</v>
+        <v>2068.3578125</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -655,13 +655,13 @@
         <v>12597.65625</v>
       </c>
       <c r="C11">
-        <v>34628.3203125</v>
+        <v>42416.63671875</v>
       </c>
       <c r="D11">
-        <v>33993.54677798698</v>
+        <v>41431.61426675731</v>
       </c>
       <c r="E11">
-        <v>1731.416015625</v>
+        <v>2120.8318359375</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -672,13 +672,13 @@
         <v>10019.53125</v>
       </c>
       <c r="C12">
-        <v>34978.4921875</v>
+        <v>42745.9375</v>
       </c>
       <c r="D12">
-        <v>34335.77111801031</v>
+        <v>42090.89770968999</v>
       </c>
       <c r="E12">
-        <v>1748.924609375</v>
+        <v>2137.296875</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -689,13 +689,13 @@
         <v>7928.24072265625</v>
       </c>
       <c r="C13">
-        <v>35333.5234375</v>
+        <v>43359.91796875</v>
       </c>
       <c r="D13">
-        <v>34704.53676621046</v>
+        <v>42713.83008701103</v>
       </c>
       <c r="E13">
-        <v>1766.676171875</v>
+        <v>2167.9958984375</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -706,13 +706,13 @@
         <v>6307.87060546875</v>
       </c>
       <c r="C14">
-        <v>35657.0390625</v>
+        <v>43708.484375</v>
       </c>
       <c r="D14">
-        <v>35090.30751093815</v>
+        <v>43287.72440617059</v>
       </c>
       <c r="E14">
-        <v>1782.851953125</v>
+        <v>2185.42421875</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -723,13 +723,13 @@
         <v>5034.72216796875</v>
       </c>
       <c r="C15">
-        <v>36068.37109375</v>
+        <v>44141.4609375</v>
       </c>
       <c r="D15">
-        <v>35501.764667379</v>
+        <v>43833.72870991443</v>
       </c>
       <c r="E15">
-        <v>1803.4185546875</v>
+        <v>2207.073046875</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -740,13 +740,13 @@
         <v>3993.0556640625</v>
       </c>
       <c r="C16">
-        <v>36508.19140625</v>
+        <v>44704.27734375</v>
       </c>
       <c r="D16">
-        <v>35963.17472786042</v>
+        <v>44387.32030553186</v>
       </c>
       <c r="E16">
-        <v>1825.4095703125</v>
+        <v>2235.2138671875</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -757,13 +757,13 @@
         <v>3144.054931640625</v>
       </c>
       <c r="C17">
-        <v>36965.609375</v>
+        <v>45377.1640625</v>
       </c>
       <c r="D17">
-        <v>36486.32078834716</v>
+        <v>44962.69912158429</v>
       </c>
       <c r="E17">
-        <v>1848.28046875</v>
+        <v>2268.858203125</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -774,13 +774,13 @@
         <v>2519.53125</v>
       </c>
       <c r="C18">
-        <v>37414.8515625</v>
+        <v>45933.66015625</v>
       </c>
       <c r="D18">
-        <v>37019.92281226083</v>
+        <v>45510.71680082021</v>
       </c>
       <c r="E18">
-        <v>1870.742578125</v>
+        <v>2296.6830078125</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -791,13 +791,13 @@
         <v>2000.76220703125</v>
       </c>
       <c r="C19">
-        <v>37936.94921875</v>
+        <v>46529.25</v>
       </c>
       <c r="D19">
-        <v>37632.07238898666</v>
+        <v>46107.42499551659</v>
       </c>
       <c r="E19">
-        <v>1896.8474609375</v>
+        <v>2326.4625</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -808,13 +808,13 @@
         <v>1580.668579101562</v>
       </c>
       <c r="C20">
-        <v>38532.83984375</v>
+        <v>47114.34765625</v>
       </c>
       <c r="D20">
-        <v>38324.92091244424</v>
+        <v>46756.27973845982</v>
       </c>
       <c r="E20">
-        <v>1926.6419921875</v>
+        <v>2355.7173828125</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -825,13 +825,13 @@
         <v>1253.633666992188</v>
       </c>
       <c r="C21">
-        <v>39231.796875</v>
+        <v>47747.625</v>
       </c>
       <c r="D21">
-        <v>39080.49447043005</v>
+        <v>47444.2227290829</v>
       </c>
       <c r="E21">
-        <v>1961.58984375</v>
+        <v>2387.38125</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -842,13 +842,13 @@
         <v>1000.702270507812</v>
       </c>
       <c r="C22">
-        <v>39976.3671875</v>
+        <v>48386.265625</v>
       </c>
       <c r="D22">
-        <v>39893.7232963595</v>
+        <v>48171.50095838481</v>
       </c>
       <c r="E22">
-        <v>1998.818359375</v>
+        <v>2419.31328125</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -859,13 +859,13 @@
         <v>790.028076171875</v>
       </c>
       <c r="C23">
-        <v>40813.66015625</v>
+        <v>49069.265625</v>
       </c>
       <c r="D23">
-        <v>40839.79524953587</v>
+        <v>49008.92606223487</v>
       </c>
       <c r="E23">
-        <v>2040.6830078125</v>
+        <v>2453.46328125</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -876,13 +876,13 @@
         <v>628.8109741210938</v>
       </c>
       <c r="C24">
-        <v>41703.7578125</v>
+        <v>49823.87890625</v>
       </c>
       <c r="D24">
-        <v>41853.80616221103</v>
+        <v>49902.81209075074</v>
       </c>
       <c r="E24">
-        <v>2085.187890625</v>
+        <v>2491.1939453125</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -893,13 +893,13 @@
         <v>502.2321472167969</v>
       </c>
       <c r="C25">
-        <v>41257.2109375</v>
+        <v>49140.77734375</v>
       </c>
       <c r="D25">
-        <v>42959.77794896658</v>
+        <v>50878.50380364111</v>
       </c>
       <c r="E25">
-        <v>2062.860546875</v>
+        <v>2457.0388671875</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -910,13 +910,13 @@
         <v>400.1524353027344</v>
       </c>
       <c r="C26">
-        <v>42631.9375</v>
+        <v>50453.01171875</v>
       </c>
       <c r="D26">
-        <v>44198.00386381258</v>
+        <v>51975.68421241708</v>
       </c>
       <c r="E26">
-        <v>2131.596875</v>
+        <v>2522.6505859375</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -927,13 +927,13 @@
         <v>315.5048217773437</v>
       </c>
       <c r="C27">
-        <v>44075.26953125</v>
+        <v>51830.875</v>
       </c>
       <c r="D27">
-        <v>45636.90502081328</v>
+        <v>53260.22002390261</v>
       </c>
       <c r="E27">
-        <v>2203.7634765625</v>
+        <v>2591.54375</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -944,13 +944,13 @@
         <v>252.016128540039</v>
       </c>
       <c r="C28">
-        <v>45658</v>
+        <v>53220.23046875</v>
       </c>
       <c r="D28">
-        <v>47147.23086827735</v>
+        <v>54621.56114331308</v>
       </c>
       <c r="E28">
-        <v>2282.9</v>
+        <v>2661.0115234375</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -961,13 +961,13 @@
         <v>200.3205108642578</v>
       </c>
       <c r="C29">
-        <v>47282.55859375</v>
+        <v>54904.359375</v>
       </c>
       <c r="D29">
-        <v>48857.81993755898</v>
+        <v>56180.69727150979</v>
       </c>
       <c r="E29">
-        <v>2364.1279296875</v>
+        <v>2745.21796875</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -978,13 +978,13 @@
         <v>158.005615234375</v>
       </c>
       <c r="C30">
-        <v>49427.76171875</v>
+        <v>56826.44921875</v>
       </c>
       <c r="D30">
-        <v>50823.37690796776</v>
+        <v>57995.24967474237</v>
       </c>
       <c r="E30">
-        <v>2471.3880859375</v>
+        <v>2841.3224609375</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -995,13 +995,13 @@
         <v>125.5580368041992</v>
       </c>
       <c r="C31">
-        <v>51169.375</v>
+        <v>58446.66015625</v>
       </c>
       <c r="D31">
-        <v>52940.20179176993</v>
+        <v>59976.52418134388</v>
       </c>
       <c r="E31">
-        <v>2558.46875</v>
+        <v>2922.3330078125</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1012,13 +1012,13 @@
         <v>99.73403930664062</v>
       </c>
       <c r="C32">
-        <v>52802.9453125</v>
+        <v>60360.57421875</v>
       </c>
       <c r="D32">
-        <v>55294.04883557346</v>
+        <v>62211.38755290791</v>
       </c>
       <c r="E32">
-        <v>2640.147265625</v>
+        <v>3018.0287109375</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1029,13 +1029,47 @@
         <v>79.44915008544922</v>
       </c>
       <c r="C33">
-        <v>54056.60546875</v>
+        <v>61208.90625</v>
       </c>
       <c r="D33">
-        <v>57872.91763919812</v>
+        <v>64696.34863628093</v>
       </c>
       <c r="E33">
-        <v>2702.8302734375</v>
+        <v>3060.4453125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>62.91946411132812</v>
+      </c>
+      <c r="C34">
+        <v>63394.36328125</v>
+      </c>
+      <c r="D34">
+        <v>67570.15315303592</v>
+      </c>
+      <c r="E34">
+        <v>3169.7181640625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>49.86701965332031</v>
+      </c>
+      <c r="C35">
+        <v>65918.4296875</v>
+      </c>
+      <c r="D35">
+        <v>70804.61074275136</v>
+      </c>
+      <c r="E35">
+        <v>3295.921484375</v>
       </c>
     </row>
   </sheetData>
@@ -1045,7 +1079,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1082,22 +1116,22 @@
         <v>100019.53125</v>
       </c>
       <c r="C2">
-        <v>8420.05078125</v>
+        <v>11690.5400390625</v>
       </c>
       <c r="D2">
-        <v>9137.744102011024</v>
+        <v>12047.23312937797</v>
       </c>
       <c r="E2">
-        <v>421.0025390625</v>
+        <v>584.527001953125</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
       <c r="G2">
-        <v>31592.37148788481</v>
+        <v>42861.74544370501</v>
       </c>
       <c r="H2">
-        <v>2797.603513770331</v>
+        <v>11989.14063854875</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1108,22 +1142,22 @@
         <v>79511.71875</v>
       </c>
       <c r="C3">
-        <v>7629.91748046875</v>
+        <v>11107.095703125</v>
       </c>
       <c r="D3">
-        <v>7936.77914073486</v>
+        <v>11365.12093953195</v>
       </c>
       <c r="E3">
-        <v>381.4958740234375</v>
+        <v>555.35478515625</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
       </c>
       <c r="G3">
-        <v>2.195395227477822E+256</v>
+        <v>4.366484664592412E+243</v>
       </c>
       <c r="H3">
-        <v>5.001155751936546E+224</v>
+        <v>9.592402767507499E+227</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1134,22 +1168,22 @@
         <v>63105.46875</v>
       </c>
       <c r="C4">
-        <v>6711.7451171875</v>
+        <v>10528.9375</v>
       </c>
       <c r="D4">
-        <v>6879.155425713847</v>
+        <v>10606.952452046</v>
       </c>
       <c r="E4">
-        <v>335.587255859375</v>
+        <v>526.446875</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
       </c>
       <c r="G4">
-        <v>-0.9239266536126579</v>
+        <v>-0.6912122587962607</v>
       </c>
       <c r="H4">
-        <v>0.364029392887774</v>
+        <v>0.2703011616914273</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1160,22 +1194,22 @@
         <v>50214.84375</v>
       </c>
       <c r="C5">
-        <v>6109.0517578125</v>
+        <v>9730.052734375</v>
       </c>
       <c r="D5">
-        <v>5999.369858981866</v>
+        <v>9828.045412173256</v>
       </c>
       <c r="E5">
-        <v>305.452587890625</v>
+        <v>486.50263671875</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
       <c r="G5">
-        <v>-0.454113863298173</v>
+        <v>-0.5262130450654049</v>
       </c>
       <c r="H5">
-        <v>0.1882293798719113</v>
+        <v>0.1767727696569793</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1186,22 +1220,22 @@
         <v>39902.34375</v>
       </c>
       <c r="C6">
-        <v>5459.90283203125</v>
+        <v>9197.080078125</v>
       </c>
       <c r="D6">
-        <v>5278.927396501709</v>
+        <v>9050.780640821124</v>
       </c>
       <c r="E6">
-        <v>272.9951416015625</v>
+        <v>459.85400390625</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="G6">
-        <v>23422087000.3346</v>
+        <v>792933800.5092915</v>
       </c>
       <c r="H6">
-        <v>1.7522831087062E+234</v>
+        <v>4.106065996345121E+114</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1212,22 +1246,22 @@
         <v>31699.21875</v>
       </c>
       <c r="C7">
-        <v>5030.18798828125</v>
+        <v>8412.1640625</v>
       </c>
       <c r="D7">
-        <v>4711.746814125254</v>
+        <v>8307.833960221353</v>
       </c>
       <c r="E7">
-        <v>251.5093994140625</v>
+        <v>420.608203125</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7">
-        <v>583914.3584025004</v>
+        <v>850636.0731182554</v>
       </c>
       <c r="H7">
-        <v>2110831.057425295</v>
+        <v>350384.6840165902</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1238,13 +1272,13 @@
         <v>25136.71875</v>
       </c>
       <c r="C8">
-        <v>4528.4609375</v>
+        <v>7917.733398437501</v>
       </c>
       <c r="D8">
-        <v>4280.640994676406</v>
+        <v>7616.692184097191</v>
       </c>
       <c r="E8">
-        <v>226.423046875</v>
+        <v>395.8866699218751</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1255,13 +1289,13 @@
         <v>19980.46875</v>
       </c>
       <c r="C9">
-        <v>4240.6083984375</v>
+        <v>7325.158203125</v>
       </c>
       <c r="D9">
-        <v>3977.073637987523</v>
+        <v>7004.832710702455</v>
       </c>
       <c r="E9">
-        <v>212.030419921875</v>
+        <v>366.25791015625</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1272,13 +1306,13 @@
         <v>15878.90625</v>
       </c>
       <c r="C10">
-        <v>3963.413818359375</v>
+        <v>6815.076171875</v>
       </c>
       <c r="D10">
-        <v>3781.296244958424</v>
+        <v>6473.994214843578</v>
       </c>
       <c r="E10">
-        <v>198.1706909179688</v>
+        <v>340.75380859375</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1289,13 +1323,13 @@
         <v>12597.65625</v>
       </c>
       <c r="C11">
-        <v>3759.622314453125</v>
+        <v>6163.982421875</v>
       </c>
       <c r="D11">
-        <v>3680.637724937797</v>
+        <v>6027.194678241773</v>
       </c>
       <c r="E11">
-        <v>187.9811157226563</v>
+        <v>308.19912109375</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1306,13 +1340,13 @@
         <v>10019.53125</v>
       </c>
       <c r="C12">
-        <v>3644.08642578125</v>
+        <v>5836.23779296875</v>
       </c>
       <c r="D12">
-        <v>3666.137650718837</v>
+        <v>5674.661743040049</v>
       </c>
       <c r="E12">
-        <v>182.2043212890625</v>
+        <v>291.8118896484375</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1323,13 +1357,13 @@
         <v>7928.24072265625</v>
       </c>
       <c r="C13">
-        <v>3597.280517578125</v>
+        <v>5448.34912109375</v>
       </c>
       <c r="D13">
-        <v>3730.433865269516</v>
+        <v>5406.845933767662</v>
       </c>
       <c r="E13">
-        <v>179.8640258789063</v>
+        <v>272.4174560546875</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1340,13 +1374,13 @@
         <v>6307.87060546875</v>
       </c>
       <c r="C14">
-        <v>3689.150634765625</v>
+        <v>5196.76416015625</v>
       </c>
       <c r="D14">
-        <v>3864.42427164131</v>
+        <v>5235.295301445138</v>
       </c>
       <c r="E14">
-        <v>184.4575317382813</v>
+        <v>259.8382080078125</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1357,13 +1391,13 @@
         <v>5034.72216796875</v>
       </c>
       <c r="C15">
-        <v>3978.36376953125</v>
+        <v>5182.81640625</v>
       </c>
       <c r="D15">
-        <v>4061.460258752818</v>
+        <v>5152.528355129323</v>
       </c>
       <c r="E15">
-        <v>198.9181884765625</v>
+        <v>259.1408203125</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1374,13 +1408,13 @@
         <v>3993.0556640625</v>
       </c>
       <c r="C16">
-        <v>4195.68603515625</v>
+        <v>5131.1728515625</v>
       </c>
       <c r="D16">
-        <v>4328.867275053805</v>
+        <v>5156.31242817392</v>
       </c>
       <c r="E16">
-        <v>209.7843017578125</v>
+        <v>256.558642578125</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1391,13 +1425,13 @@
         <v>3144.054931640625</v>
       </c>
       <c r="C17">
-        <v>4439.6865234375</v>
+        <v>5241.6357421875</v>
       </c>
       <c r="D17">
-        <v>4672.509762990419</v>
+        <v>5254.589576260884</v>
       </c>
       <c r="E17">
-        <v>221.984326171875</v>
+        <v>262.081787109375</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1408,13 +1442,13 @@
         <v>2519.53125</v>
       </c>
       <c r="C18">
-        <v>4741.4970703125</v>
+        <v>5384.38134765625</v>
       </c>
       <c r="D18">
-        <v>5052.831867793004</v>
+        <v>5431.909829737</v>
       </c>
       <c r="E18">
-        <v>237.074853515625</v>
+        <v>269.2190673828125</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1425,13 +1459,13 @@
         <v>2000.76220703125</v>
       </c>
       <c r="C19">
-        <v>5170.70263671875</v>
+        <v>5652.0126953125</v>
       </c>
       <c r="D19">
-        <v>5513.888238035239</v>
+        <v>5706.505576945142</v>
       </c>
       <c r="E19">
-        <v>258.5351318359375</v>
+        <v>282.600634765625</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1442,13 +1476,13 @@
         <v>1580.668579101562</v>
       </c>
       <c r="C20">
-        <v>5676.22509765625</v>
+        <v>5986.91650390625</v>
       </c>
       <c r="D20">
-        <v>6056.94356726527</v>
+        <v>6085.260119269665</v>
       </c>
       <c r="E20">
-        <v>283.8112548828125</v>
+        <v>299.3458251953125</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1459,13 +1493,13 @@
         <v>1253.633666992188</v>
       </c>
       <c r="C21">
-        <v>6340.091796875</v>
+        <v>6415.705078125</v>
       </c>
       <c r="D21">
-        <v>6666.066005391437</v>
+        <v>6559.009923797816</v>
       </c>
       <c r="E21">
-        <v>317.00458984375</v>
+        <v>320.78525390625</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1476,13 +1510,13 @@
         <v>1000.702270507812</v>
       </c>
       <c r="C22">
-        <v>7069.56298828125</v>
+        <v>6914.908203125</v>
       </c>
       <c r="D22">
-        <v>7334.640655863728</v>
+        <v>7121.510709513394</v>
       </c>
       <c r="E22">
-        <v>353.4781494140625</v>
+        <v>345.74541015625</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1493,13 +1527,13 @@
         <v>790.028076171875</v>
       </c>
       <c r="C23">
-        <v>7869.044921875</v>
+        <v>7544.140625</v>
       </c>
       <c r="D23">
-        <v>8123.547805906287</v>
+        <v>7827.319094686667</v>
       </c>
       <c r="E23">
-        <v>393.45224609375</v>
+        <v>377.20703125</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1510,13 +1544,13 @@
         <v>628.8109741210938</v>
       </c>
       <c r="C24">
-        <v>8743.3505859375</v>
+        <v>8294.322265625</v>
       </c>
       <c r="D24">
-        <v>8977.839518121305</v>
+        <v>8630.421337708758</v>
       </c>
       <c r="E24">
-        <v>437.167529296875</v>
+        <v>414.71611328125</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1527,13 +1561,13 @@
         <v>502.2321472167969</v>
       </c>
       <c r="C25">
-        <v>11272.337890625</v>
+        <v>11140.9892578125</v>
       </c>
       <c r="D25">
-        <v>9916.376629193082</v>
+        <v>9548.688608406941</v>
       </c>
       <c r="E25">
-        <v>563.6168945312501</v>
+        <v>557.049462890625</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1544,13 +1578,13 @@
         <v>400.1524353027344</v>
       </c>
       <c r="C26">
-        <v>12066.3154296875</v>
+        <v>11841.525390625</v>
       </c>
       <c r="D26">
-        <v>10972.68227131938</v>
+        <v>10617.89451624724</v>
       </c>
       <c r="E26">
-        <v>603.315771484375</v>
+        <v>592.07626953125</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1561,13 +1595,13 @@
         <v>315.5048217773437</v>
       </c>
       <c r="C27">
-        <v>13019.5595703125</v>
+        <v>12771.1796875</v>
       </c>
       <c r="D27">
-        <v>12205.00563646292</v>
+        <v>11903.82496229611</v>
       </c>
       <c r="E27">
-        <v>650.9779785156251</v>
+        <v>638.558984375</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1578,13 +1612,13 @@
         <v>252.016128540039</v>
       </c>
       <c r="C28">
-        <v>14329.244140625</v>
+        <v>13994.369140625</v>
       </c>
       <c r="D28">
-        <v>13502.16280850915</v>
+        <v>13294.29377115993</v>
       </c>
       <c r="E28">
-        <v>716.46220703125</v>
+        <v>699.7184570312501</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1595,13 +1629,13 @@
         <v>200.3205108642578</v>
       </c>
       <c r="C29">
-        <v>15752.4931640625</v>
+        <v>15659.564453125</v>
       </c>
       <c r="D29">
-        <v>14974.28759673169</v>
+        <v>14910.64514644329</v>
       </c>
       <c r="E29">
-        <v>787.624658203125</v>
+        <v>782.9782226562501</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1612,13 +1646,13 @@
         <v>158.005615234375</v>
       </c>
       <c r="C30">
-        <v>17903.3828125</v>
+        <v>17761.7265625</v>
       </c>
       <c r="D30">
-        <v>16668.39027423906</v>
+        <v>16813.57432409036</v>
       </c>
       <c r="E30">
-        <v>895.1691406250001</v>
+        <v>888.086328125</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1629,13 +1663,13 @@
         <v>125.5580368041992</v>
       </c>
       <c r="C31">
-        <v>19629.7734375</v>
+        <v>19534.283203125</v>
       </c>
       <c r="D31">
-        <v>18494.86572193044</v>
+        <v>18909.40964160488</v>
       </c>
       <c r="E31">
-        <v>981.488671875</v>
+        <v>976.71416015625</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1646,13 +1680,13 @@
         <v>99.73403930664062</v>
       </c>
       <c r="C32">
-        <v>21276.375</v>
+        <v>21810.171875</v>
       </c>
       <c r="D32">
-        <v>20527.43993707206</v>
+        <v>21288.72034998315</v>
       </c>
       <c r="E32">
-        <v>1063.81875</v>
+        <v>1090.50859375</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1663,13 +1697,47 @@
         <v>79.44915008544922</v>
       </c>
       <c r="C33">
-        <v>22030.615234375</v>
+        <v>22082.576171875</v>
       </c>
       <c r="D33">
-        <v>22755.5837637895</v>
+        <v>23947.08508168327</v>
       </c>
       <c r="E33">
-        <v>1101.53076171875</v>
+        <v>1104.12880859375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>62.91946411132812</v>
+      </c>
+      <c r="C34">
+        <v>24901.34375</v>
+      </c>
+      <c r="D34">
+        <v>27032.72530314737</v>
+      </c>
+      <c r="E34">
+        <v>1245.0671875</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>49.86701965332031</v>
+      </c>
+      <c r="C35">
+        <v>28027.27734375</v>
+      </c>
+      <c r="D35">
+        <v>30515.32910376356</v>
+      </c>
+      <c r="E35">
+        <v>1401.3638671875</v>
       </c>
     </row>
   </sheetData>
